--- a/Pkg1.xlsx
+++ b/Pkg1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -79,10 +79,22 @@
     <x:t>Value accepted for Name</x:t>
   </x:si>
   <x:si>
+    <x:t>Valid value for Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter valid value for Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Description</x:t>
+  </x:si>
+  <x:si>
     <x:t>Valid value for AccountNumber</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 3</x:t>
+    <x:t>Step 4</x:t>
   </x:si>
   <x:si>
     <x:t>Enter valid value for AccountNumber</x:t>
@@ -91,7 +103,7 @@
     <x:t>Value accepted for AccountNumber</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 4</x:t>
+    <x:t>Step 5</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Save button to save Account with fields</x:t>
@@ -155,6 +167,33 @@
   </x:si>
   <x:si>
     <x:t>Deleted the Account successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approve/Reject Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Account tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to Approve/Reject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Approve/Reject link from 'Approval History Section' to Approve/Reject Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Details of 'Approve/Reject Approval Request' successfully displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Comments to notify the user (if any)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Comments</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Approve/Reject button to Approve/Reject Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overall status (Approved/Rejected) will be displayed under 'Approval History' section</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -238,8 +277,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J13" totalsRowShown="0">
-  <x:autoFilter ref="A1:J13"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
+  <x:autoFilter ref="A1:J20"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -544,7 +583,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J13"/>
+  <x:dimension ref="A1:J20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -552,12 +591,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="24.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="33.980625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="56.980625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="43.130625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="79.840624999999989" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="78.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -665,105 +704,105 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
+      <x:c r="A7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>39</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="A9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -774,16 +813,16 @@
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -793,41 +832,37 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -839,16 +874,156 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s"/>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s"/>
+      <x:c r="F20" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s"/>
+      <x:c r="J20" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Pkg1.xlsx
+++ b/Pkg1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -103,79 +103,85 @@
     <x:t>Value accepted for AccountNumber</x:t>
   </x:si>
   <x:si>
+    <x:t>Valid value for required field AnnualRevenue, value should be greater or equal 50000.45 to submit for Approval towards to the assigned approver - user:radhapatil@gmail.com</x:t>
+  </x:si>
+  <x:si>
     <x:t>Step 5</x:t>
   </x:si>
   <x:si>
+    <x:t>Enter valid value for AnnualRevenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for AnnualRevenue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for CustomerPriority__c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter valid value for CustomerPriority__c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for CustomerPriority__c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for Website</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter valid value for Website</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value accepted for Website</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
     <x:t>Click on Save button to save Account with fields</x:t>
   </x:si>
   <x:si>
     <x:t>Saved changes successfully for the Account</x:t>
   </x:si>
   <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>If this record meets the entry criteria then Click on 'Submit for Approval' button to Submit for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alert message box will be displayed for confirmation from Salesforce.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'OK' button to submit the record for Approval.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unable to Submit for Approval message will be displayed if this record does not meet the entry criteria. Otherwise, this record will be displayed under Approval History section with the status 'Pending'.</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account name to view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shows fields for Account selected</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
+    <x:t>Approve/Reject Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click Account tab, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to Approve/Reject</x:t>
   </x:si>
   <x:si>
     <x:t>Details of Account successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shows fields to modify for an existing Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Account tab,  and click on existing Account to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show popup to confirm deletion of Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click yes on confirm dialog to Delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deleted the Account successfully</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click Account tab, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to Approve/Reject</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Approve/Reject link from 'Approval History Section' to Approve/Reject Account</x:t>
@@ -277,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J20" totalsRowShown="0">
-  <x:autoFilter ref="A1:J20"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
+  <x:autoFilter ref="A1:J16"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -583,7 +589,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J20"/>
+  <x:dimension ref="A1:J16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -593,10 +599,10 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="24.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="33.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="79.840624999999989" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="78.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="156.41062499999998" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="93.700624999999988" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="179.840625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -724,35 +730,31 @@
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>35</x:v>
@@ -768,35 +770,29 @@
       <x:c r="B8" s="0" t="s"/>
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>42</x:v>
@@ -812,17 +808,15 @@
       <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -832,38 +826,40 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="A12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s"/>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
     </x:row>
@@ -874,39 +870,31 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -918,112 +906,34 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
